--- a/Particles_30min.xlsx
+++ b/Particles_30min.xlsx
@@ -454,7 +454,7 @@
         <v>3161.58358024691</v>
       </c>
       <c r="L2">
-        <v>0.2026933417583115</v>
+        <v>12.55857342063929</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         <v>11432.6627160494</v>
       </c>
       <c r="L3">
-        <v>0.733302260308519</v>
+        <v>45.18124563366108</v>
       </c>
     </row>
     <row r="4">
@@ -530,7 +530,7 @@
         <v>19514.4204938272</v>
       </c>
       <c r="L4">
-        <v>1.252239566851171</v>
+        <v>76.73287942733916</v>
       </c>
     </row>
     <row r="5">
@@ -568,7 +568,7 @@
         <v>16493.0675308642</v>
       </c>
       <c r="L5">
-        <v>1.058180825004926</v>
+        <v>64.97486856011797</v>
       </c>
     </row>
     <row r="6">
@@ -606,7 +606,7 @@
         <v>24462.0016049383</v>
       </c>
       <c r="L6">
-        <v>1.570159529314779</v>
+        <v>95.89031849939033</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +644,7 @@
         <v>23230.882962963</v>
       </c>
       <c r="L7">
-        <v>1.49103432894074</v>
+        <v>91.1345543849645</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +682,7 @@
         <v>647.1061728395098</v>
       </c>
       <c r="L8">
-        <v>0.04148100688485273</v>
+        <v>2.574454964238282</v>
       </c>
     </row>
     <row r="9">
@@ -720,7 +720,7 @@
         <v>62496.37716049379</v>
       </c>
       <c r="L9">
-        <v>4.020020058799751</v>
+        <v>239.1507548725752</v>
       </c>
     </row>
     <row r="10">
@@ -758,7 +758,7 @@
         <v>83395.94864197529</v>
       </c>
       <c r="L10">
-        <v>5.37061356798649</v>
+        <v>314.8485896458194</v>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         <v>19715.7749382716</v>
       </c>
       <c r="L11">
-        <v>1.265174705279588</v>
+        <v>77.51488554272468</v>
       </c>
     </row>
     <row r="12">
@@ -834,7 +834,7 @@
         <v>95731.50629629599</v>
       </c>
       <c r="L12">
-        <v>6.169244362445035</v>
+        <v>358.5216597945606</v>
       </c>
     </row>
     <row r="13">
@@ -872,7 +872,7 @@
         <v>28199.887654321</v>
       </c>
       <c r="L13">
-        <v>1.810463711326399</v>
+        <v>110.2840494534377</v>
       </c>
     </row>
     <row r="14">
@@ -910,7 +910,7 @@
         <v>61872.0608641975</v>
       </c>
       <c r="L14">
-        <v>3.979723026012425</v>
+        <v>236.8565174386655</v>
       </c>
     </row>
     <row r="15">
@@ -948,7 +948,7 @@
         <v>65298.3827160494</v>
       </c>
       <c r="L15">
-        <v>4.20091233754418</v>
+        <v>249.4240046706727</v>
       </c>
     </row>
     <row r="16">
@@ -986,7 +986,7 @@
         <v>85674.76654321</v>
       </c>
       <c r="L16">
-        <v>5.518067029175469</v>
+        <v>322.9728044050147</v>
       </c>
     </row>
     <row r="17">
@@ -1024,7 +1024,7 @@
         <v>31848.2734567901</v>
       </c>
       <c r="L17">
-        <v>2.045110638972255</v>
+        <v>124.2670054285986</v>
       </c>
     </row>
     <row r="18">
@@ -1062,7 +1062,7 @@
         <v>44445.459382716</v>
       </c>
       <c r="L18">
-        <v>2.856035751344266</v>
+        <v>172.0452995414061</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1100,7 @@
         <v>7145.8114814815</v>
       </c>
       <c r="L19">
-        <v>0.4582295754618622</v>
+        <v>28.31502202257372</v>
       </c>
     </row>
     <row r="20">
@@ -1138,7 +1138,7 @@
         <v>77722.1767901235</v>
       </c>
       <c r="L20">
-        <v>5.003647573549425</v>
+        <v>294.5102956033933</v>
       </c>
     </row>
     <row r="21">
@@ -1176,7 +1176,7 @@
         <v>65315.7682716049</v>
       </c>
       <c r="L21">
-        <v>4.202034892471776</v>
+        <v>249.4876266396184</v>
       </c>
     </row>
     <row r="22">
@@ -1214,7 +1214,7 @@
         <v>281614.743950617</v>
       </c>
       <c r="L22">
-        <v>18.33582019471173</v>
+        <v>926.2076366420038</v>
       </c>
     </row>
     <row r="23">
@@ -1252,7 +1252,7 @@
         <v>47964.4225925926</v>
       </c>
       <c r="L23">
-        <v>3.082767088402373</v>
+        <v>185.25276428031</v>
       </c>
     </row>
     <row r="24">
@@ -1290,7 +1290,7 @@
         <v>369432.784567901</v>
       </c>
       <c r="L24">
-        <v>24.16992437839669</v>
+        <v>1135.419133582689</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>46727.2104938272</v>
       </c>
       <c r="L25">
-        <v>3.00304179709324</v>
+        <v>180.6161551453208</v>
       </c>
     </row>
     <row r="26">
@@ -1366,7 +1366,7 @@
         <v>62927.5769135802</v>
       </c>
       <c r="L26">
-        <v>4.04785384973182</v>
+        <v>240.7342107525787</v>
       </c>
     </row>
     <row r="27">
@@ -1404,7 +1404,7 @@
         <v>1019.93901234568</v>
       </c>
       <c r="L27">
-        <v>0.06538182007934432</v>
+        <v>4.056804432840635</v>
       </c>
     </row>
     <row r="28">
@@ -1442,7 +1442,7 @@
         <v>31863.4533333333</v>
       </c>
       <c r="L28">
-        <v>2.046087136241761</v>
+        <v>124.3250479851357</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1480,7 @@
         <v>29673.3371604938</v>
       </c>
       <c r="L29">
-        <v>1.905217529361244</v>
+        <v>115.9391178723235</v>
       </c>
     </row>
     <row r="30">
@@ -1518,7 +1518,7 @@
         <v>421159.293580247</v>
       </c>
       <c r="L30">
-        <v>27.63220063328374</v>
+        <v>1240.935368953026</v>
       </c>
     </row>
     <row r="31">
@@ -1556,7 +1556,7 @@
         <v>82063.50703703699</v>
       </c>
       <c r="L31">
-        <v>5.284413693860247</v>
+        <v>310.0864933219747</v>
       </c>
     </row>
     <row r="32">
@@ -1594,7 +1594,7 @@
         <v>42658.0249382716</v>
       </c>
       <c r="L32">
-        <v>2.740903048466718</v>
+        <v>165.3133780514506</v>
       </c>
     </row>
     <row r="33">
@@ -1632,7 +1632,7 @@
         <v>53828.4817283951</v>
       </c>
       <c r="L33">
-        <v>3.460793235811111</v>
+        <v>207.1268789165306</v>
       </c>
     </row>
     <row r="34">
@@ -1670,7 +1670,7 @@
         <v>54677.8764197531</v>
       </c>
       <c r="L34">
-        <v>3.515569846064813</v>
+        <v>210.2812975539925</v>
       </c>
     </row>
     <row r="35">
@@ -1708,7 +1708,7 @@
         <v>25392.2375308642</v>
       </c>
       <c r="L35">
-        <v>1.629953910859059</v>
+        <v>99.47885027921384</v>
       </c>
     </row>
   </sheetData>
